--- a/开发板引脚信息表.xlsx
+++ b/开发板引脚信息表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fpga\AC201-SA5Z50-CM33\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fpga\AC201-SA5Z50-CM33\TEST1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A113EAF-B197-44FA-A629-6071B2A8C028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F52F031-A5D3-47AC-AF7F-EE49A67CC078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-22215" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22215" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1545,10 +1545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CMD LINE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T-SCL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1606,6 +1602,10 @@
   </si>
   <si>
     <t>AHB_UART_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD_N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1946,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2219,7 +2219,7 @@
         <v>429</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -2236,7 +2236,7 @@
         <v>45</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -2530,7 +2530,7 @@
         <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2544,7 +2544,7 @@
         <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -3489,7 +3489,7 @@
         <v>486</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -3506,7 +3506,7 @@
         <v>484</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
@@ -3523,7 +3523,7 @@
         <v>487</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
@@ -3540,7 +3540,7 @@
         <v>485</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -3554,10 +3554,10 @@
         <v>259</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
@@ -3571,10 +3571,10 @@
         <v>261</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -3608,7 +3608,7 @@
         <v>433</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.15">
@@ -3921,7 +3921,7 @@
         <v>310</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>456</v>
@@ -3973,7 +3973,7 @@
         <v>455</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.15">
@@ -3987,7 +3987,7 @@
         <v>318</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>478</v>

--- a/开发板引脚信息表.xlsx
+++ b/开发板引脚信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fpga\AC201-SA5Z50-CM33\TEST1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F52F031-A5D3-47AC-AF7F-EE49A67CC078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BBF8FC-80DE-4371-BE74-C64B6B68292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22215" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-5520" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1419,10 +1419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T-CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GPIO16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1606,6 +1602,10 @@
   </si>
   <si>
     <t>CMD_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-RST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1947,7 +1947,7 @@
   <dimension ref="A1:I227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+      <selection activeCell="J168" sqref="J168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2165,7 +2165,7 @@
         <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -2182,7 +2182,7 @@
         <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -2199,7 +2199,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -2219,7 +2219,7 @@
         <v>429</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -2236,7 +2236,7 @@
         <v>45</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -2253,7 +2253,7 @@
         <v>47</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -2270,7 +2270,7 @@
         <v>49</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -2287,7 +2287,7 @@
         <v>52</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -2301,7 +2301,7 @@
         <v>54</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -2315,7 +2315,7 @@
         <v>56</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -2329,7 +2329,7 @@
         <v>58</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -2394,7 +2394,7 @@
         <v>68</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -2411,7 +2411,7 @@
         <v>70</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -2428,7 +2428,7 @@
         <v>72</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -2445,7 +2445,7 @@
         <v>74</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -2462,7 +2462,7 @@
         <v>76</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -2479,7 +2479,7 @@
         <v>78</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -2496,7 +2496,7 @@
         <v>80</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -2513,7 +2513,7 @@
         <v>82</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2530,7 +2530,7 @@
         <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2544,7 +2544,7 @@
         <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -2564,7 +2564,7 @@
         <v>90</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -2584,7 +2584,7 @@
         <v>93</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -2795,7 +2795,7 @@
         <v>426</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
@@ -2812,7 +2812,7 @@
         <v>425</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -2851,7 +2851,7 @@
         <v>424</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -2868,7 +2868,7 @@
         <v>427</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
@@ -3452,7 +3452,7 @@
         <v>247</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F134" t="s">
         <v>85</v>
@@ -3469,7 +3469,7 @@
         <v>249</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F135" t="s">
         <v>87</v>
@@ -3486,10 +3486,10 @@
         <v>251</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -3503,10 +3503,10 @@
         <v>253</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
@@ -3520,10 +3520,10 @@
         <v>255</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
@@ -3537,10 +3537,10 @@
         <v>257</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -3554,10 +3554,10 @@
         <v>259</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
@@ -3571,10 +3571,10 @@
         <v>261</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -3608,7 +3608,7 @@
         <v>433</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.15">
@@ -3653,7 +3653,7 @@
         <v>436</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.15">
@@ -3894,7 +3894,7 @@
         <v>453</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.15">
@@ -3921,10 +3921,10 @@
         <v>310</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G166" t="s">
         <v>111</v>
@@ -3944,7 +3944,7 @@
         <v>454</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.15">
@@ -3970,10 +3970,10 @@
         <v>316</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.15">
@@ -3987,10 +3987,10 @@
         <v>318</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G170" t="s">
         <v>109</v>
@@ -4007,7 +4007,7 @@
         <v>319</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.15">
@@ -4021,7 +4021,7 @@
         <v>320</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.15">
@@ -4035,7 +4035,7 @@
         <v>321</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.15">
@@ -4049,7 +4049,7 @@
         <v>423</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
